--- a/TestCase/source/hero/hero.xlsx
+++ b/TestCase/source/hero/hero.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PRIVATE\easy_converter\easy_converter\source\hero\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PRIVATE\easy_converter\TestCase\source\hero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBF79D5-59F1-40BF-8524-BCD78BF5BAB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A256C58A-3B41-4645-8433-70CA3A76FBC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,38 @@
   </si>
   <si>
     <t>H1004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Struct&lt;string,name,int,score&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enum&lt;Locked,1,Available,2&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gun,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Locked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireThrower,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Available</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,9 +485,10 @@
   <cols>
     <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.875" customWidth="1"/>
+    <col min="6" max="6" width="25.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,8 +504,14 @@
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -488,8 +527,14 @@
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
@@ -505,8 +550,14 @@
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
@@ -521,6 +572,12 @@
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
